--- a/非受控文档/过程文档/优先级打分表（改）/学生优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/学生优先级打分表.xlsx
@@ -94,34 +94,34 @@
     <t>学生可以对“我的消息”中的消息进行删除</t>
   </si>
   <si>
+    <t>搜索消息</t>
+  </si>
+  <si>
+    <t>学生有“我的消息”来接受系统通知，回复我的信息或者是关注课程信息列表，学生可以根据消息分类筛选和关键字搜索相关信息</t>
+  </si>
+  <si>
     <t>下载附件</t>
   </si>
   <si>
     <t>学生可以在帖子中的附件或答疑信息中的附件进行下载</t>
   </si>
   <si>
-    <t>搜索消息</t>
-  </si>
-  <si>
-    <t>学生有“我的消息”来接受系统通知，回复我的信息或者是关注课程信息列表，学生可以根据消息分类筛选和关键字搜索相关信息</t>
-  </si>
-  <si>
     <t>删除自己发的帖子</t>
   </si>
   <si>
     <t>可以在总论坛和课程论坛删除帖子，也可以在“我的帖子”列表中进行删除</t>
   </si>
   <si>
+    <t>举报帖子、用户</t>
+  </si>
+  <si>
+    <t>学生可以在帖子对不良帖子和用户进行举报</t>
+  </si>
+  <si>
     <t>删除回复</t>
   </si>
   <si>
     <t>可以删除自己发表的回复</t>
-  </si>
-  <si>
-    <t>举报帖子、用户</t>
-  </si>
-  <si>
-    <t>学生可以在帖子对不良帖子和用户进行举报</t>
   </si>
   <si>
     <t>发表帖子</t>
@@ -186,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
@@ -229,14 +229,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,41 +319,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,46 +350,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,29 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -381,31 +381,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,37 +489,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,25 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,79 +543,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,17 +575,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,11 +604,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,8 +652,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,30 +672,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,137 +692,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,10 +853,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,14 +1189,15 @@
   <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="92.75" customWidth="1"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="117.75" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:15">
@@ -1254,8 +1264,7 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5"/>
@@ -1293,8 +1302,7 @@
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="7"/>
@@ -1307,29 +1315,29 @@
         <v>8</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" ref="I5:I25" si="0">2*G5+H5</f>
+        <f>2*G5+H5</f>
         <v>24</v>
       </c>
-      <c r="J5" s="10">
-        <f t="shared" ref="J5:J25" si="1">I5/I$25</f>
+      <c r="J5" s="12">
+        <f>I5/I$25</f>
         <v>0.0697674418604651</v>
       </c>
       <c r="K5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="10">
-        <f t="shared" ref="L5:L25" si="2">K5/K$25</f>
+      <c r="L5" s="12">
+        <f>K5/K$25</f>
         <v>0.0185185185185185</v>
       </c>
       <c r="M5" s="8">
         <v>4</v>
       </c>
-      <c r="N5" s="10">
-        <f t="shared" ref="N5:N25" si="3">M5/M$25</f>
+      <c r="N5" s="12">
+        <f>M5/M$25</f>
         <v>0.0579710144927536</v>
       </c>
-      <c r="O5" s="11">
-        <f t="shared" ref="O5:O24" si="4">J5/(L5+0.5*N5)</f>
+      <c r="O5" s="13">
+        <f>J5/(L5+0.5*N5)</f>
         <v>1.46866377611352</v>
       </c>
     </row>
@@ -1337,8 +1345,7 @@
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="7"/>
@@ -1351,29 +1358,29 @@
         <v>8</v>
       </c>
       <c r="I6" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G6+H6</f>
         <v>20</v>
       </c>
-      <c r="J6" s="10">
-        <f t="shared" si="1"/>
+      <c r="J6" s="12">
+        <f>I6/I$25</f>
         <v>0.0581395348837209</v>
       </c>
       <c r="K6" s="8">
         <v>1</v>
       </c>
-      <c r="L6" s="10">
-        <f t="shared" si="2"/>
+      <c r="L6" s="12">
+        <f>K6/K$25</f>
         <v>0.0185185185185185</v>
       </c>
       <c r="M6" s="8">
         <v>4</v>
       </c>
-      <c r="N6" s="10">
-        <f t="shared" si="3"/>
+      <c r="N6" s="12">
+        <f>M6/M$25</f>
         <v>0.0579710144927536</v>
       </c>
-      <c r="O6" s="11">
-        <f t="shared" si="4"/>
+      <c r="O6" s="13">
+        <f>J6/(L6+0.5*N6)</f>
         <v>1.2238864800946</v>
       </c>
     </row>
@@ -1381,8 +1388,7 @@
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="7"/>
@@ -1395,29 +1401,29 @@
         <v>7</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G7+H7</f>
         <v>21</v>
       </c>
-      <c r="J7" s="10">
-        <f t="shared" si="1"/>
+      <c r="J7" s="12">
+        <f>I7/I$25</f>
         <v>0.061046511627907</v>
       </c>
       <c r="K7" s="8">
         <v>2</v>
       </c>
-      <c r="L7" s="10">
-        <f t="shared" si="2"/>
+      <c r="L7" s="12">
+        <f>K7/K$25</f>
         <v>0.037037037037037</v>
       </c>
       <c r="M7" s="8">
         <v>3</v>
       </c>
-      <c r="N7" s="10">
-        <f t="shared" si="3"/>
+      <c r="N7" s="12">
+        <f>M7/M$25</f>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O7" s="11">
-        <f t="shared" si="4"/>
+      <c r="O7" s="13">
+        <f>J7/(L7+0.5*N7)</f>
         <v>1.03862695125836</v>
       </c>
     </row>
@@ -1425,8 +1431,7 @@
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="7"/>
@@ -1439,29 +1444,29 @@
         <v>5</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G8+H8</f>
         <v>17</v>
       </c>
-      <c r="J8" s="10">
-        <f t="shared" si="1"/>
+      <c r="J8" s="12">
+        <f>I8/I$25</f>
         <v>0.0494186046511628</v>
       </c>
       <c r="K8" s="8">
         <v>2</v>
       </c>
-      <c r="L8" s="10">
-        <f t="shared" si="2"/>
+      <c r="L8" s="12">
+        <f>K8/K$25</f>
         <v>0.037037037037037</v>
       </c>
       <c r="M8" s="8">
         <v>2</v>
       </c>
-      <c r="N8" s="10">
-        <f t="shared" si="3"/>
+      <c r="N8" s="12">
+        <f>M8/M$25</f>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O8" s="11">
-        <f t="shared" si="4"/>
+      <c r="O8" s="13">
+        <f>J8/(L8+0.5*N8)</f>
         <v>0.959029796511628</v>
       </c>
     </row>
@@ -1469,8 +1474,7 @@
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="7"/>
@@ -1483,29 +1487,29 @@
         <v>7</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G9+H9</f>
         <v>21</v>
       </c>
-      <c r="J9" s="10">
-        <f t="shared" si="1"/>
+      <c r="J9" s="12">
+        <f>I9/I$25</f>
         <v>0.061046511627907</v>
       </c>
       <c r="K9" s="8">
         <v>3</v>
       </c>
-      <c r="L9" s="10">
-        <f t="shared" si="2"/>
+      <c r="L9" s="12">
+        <f>K9/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M9" s="8">
         <v>2</v>
       </c>
-      <c r="N9" s="10">
-        <f t="shared" si="3"/>
+      <c r="N9" s="12">
+        <f>M9/M$25</f>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O9" s="11">
-        <f t="shared" si="4"/>
+      <c r="O9" s="13">
+        <f>J9/(L9+0.5*N9)</f>
         <v>0.8714915797915</v>
       </c>
     </row>
@@ -1513,8 +1517,7 @@
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="7"/>
@@ -1527,29 +1530,29 @@
         <v>4</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G10+H10</f>
         <v>14</v>
       </c>
-      <c r="J10" s="10">
-        <f t="shared" si="1"/>
+      <c r="J10" s="12">
+        <f>I10/I$25</f>
         <v>0.0406976744186047</v>
       </c>
       <c r="K10" s="8">
         <v>2</v>
       </c>
-      <c r="L10" s="10">
-        <f t="shared" si="2"/>
+      <c r="L10" s="12">
+        <f>K10/K$25</f>
         <v>0.037037037037037</v>
       </c>
       <c r="M10" s="8">
         <v>2</v>
       </c>
-      <c r="N10" s="10">
-        <f t="shared" si="3"/>
+      <c r="N10" s="12">
+        <f>M10/M$25</f>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O10" s="11">
-        <f t="shared" si="4"/>
+      <c r="O10" s="13">
+        <f>J10/(L10+0.5*N10)</f>
         <v>0.789789244186047</v>
       </c>
     </row>
@@ -1557,8 +1560,7 @@
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="7"/>
@@ -1571,29 +1573,29 @@
         <v>7</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G11+H11</f>
         <v>19</v>
       </c>
-      <c r="J11" s="10">
-        <f t="shared" si="1"/>
+      <c r="J11" s="12">
+        <f>I11/I$25</f>
         <v>0.0552325581395349</v>
       </c>
       <c r="K11" s="8">
         <v>3</v>
       </c>
-      <c r="L11" s="10">
-        <f t="shared" si="2"/>
+      <c r="L11" s="12">
+        <f>K11/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M11" s="8">
         <v>3</v>
       </c>
-      <c r="N11" s="10">
-        <f t="shared" si="3"/>
+      <c r="N11" s="12">
+        <f>M11/M$25</f>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O11" s="11">
-        <f t="shared" si="4"/>
+      <c r="O11" s="13">
+        <f>J11/(L11+0.5*N11)</f>
         <v>0.714571220930233</v>
       </c>
     </row>
@@ -1601,8 +1603,7 @@
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="7"/>
@@ -1615,29 +1616,29 @@
         <v>7</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G12+H12</f>
         <v>19</v>
       </c>
-      <c r="J12" s="10">
-        <f t="shared" si="1"/>
+      <c r="J12" s="12">
+        <f>I12/I$25</f>
         <v>0.0552325581395349</v>
       </c>
       <c r="K12" s="8">
         <v>3</v>
       </c>
-      <c r="L12" s="10">
-        <f t="shared" si="2"/>
+      <c r="L12" s="12">
+        <f>K12/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M12" s="8">
         <v>3</v>
       </c>
-      <c r="N12" s="10">
-        <f t="shared" si="3"/>
+      <c r="N12" s="12">
+        <f>M12/M$25</f>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O12" s="11">
-        <f t="shared" si="4"/>
+      <c r="O12" s="13">
+        <f>J12/(L12+0.5*N12)</f>
         <v>0.714571220930233</v>
       </c>
     </row>
@@ -1645,8 +1646,7 @@
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="7"/>
@@ -1659,29 +1659,29 @@
         <v>6</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G13+H13</f>
         <v>16</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" si="1"/>
+      <c r="J13" s="12">
+        <f>I13/I$25</f>
         <v>0.0465116279069767</v>
       </c>
       <c r="K13" s="8">
         <v>3</v>
       </c>
-      <c r="L13" s="10">
-        <f t="shared" si="2"/>
+      <c r="L13" s="12">
+        <f>K13/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M13" s="8">
         <v>2</v>
       </c>
-      <c r="N13" s="10">
-        <f t="shared" si="3"/>
+      <c r="N13" s="12">
+        <f>M13/M$25</f>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O13" s="11">
-        <f t="shared" si="4"/>
+      <c r="O13" s="13">
+        <f>J13/(L13+0.5*N13)</f>
         <v>0.663993584603047</v>
       </c>
     </row>
@@ -1689,8 +1689,7 @@
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="7"/>
@@ -1703,29 +1702,29 @@
         <v>5</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G14+H14</f>
         <v>15</v>
       </c>
-      <c r="J14" s="10">
-        <f t="shared" si="1"/>
+      <c r="J14" s="12">
+        <f>I14/I$25</f>
         <v>0.0436046511627907</v>
       </c>
       <c r="K14" s="8">
         <v>3</v>
       </c>
-      <c r="L14" s="10">
-        <f t="shared" si="2"/>
+      <c r="L14" s="12">
+        <f>K14/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M14" s="8">
         <v>2</v>
       </c>
-      <c r="N14" s="10">
-        <f t="shared" si="3"/>
+      <c r="N14" s="12">
+        <f>M14/M$25</f>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O14" s="11">
-        <f t="shared" si="4"/>
+      <c r="O14" s="13">
+        <f>J14/(L14+0.5*N14)</f>
         <v>0.622493985565357</v>
       </c>
     </row>
@@ -1733,8 +1732,7 @@
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="7"/>
@@ -1747,29 +1745,29 @@
         <v>5</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G15+H15</f>
         <v>15</v>
       </c>
-      <c r="J15" s="10">
-        <f t="shared" si="1"/>
+      <c r="J15" s="12">
+        <f>I15/I$25</f>
         <v>0.0436046511627907</v>
       </c>
       <c r="K15" s="8">
         <v>3</v>
       </c>
-      <c r="L15" s="10">
-        <f t="shared" si="2"/>
+      <c r="L15" s="12">
+        <f>K15/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M15" s="8">
         <v>2</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" si="3"/>
+      <c r="N15" s="12">
+        <f>M15/M$25</f>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O15" s="11">
-        <f t="shared" si="4"/>
+      <c r="O15" s="13">
+        <f>J15/(L15+0.5*N15)</f>
         <v>0.622493985565357</v>
       </c>
     </row>
@@ -1777,8 +1775,7 @@
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="7"/>
@@ -1791,29 +1788,29 @@
         <v>7</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G16+H16</f>
         <v>21</v>
       </c>
-      <c r="J16" s="10">
-        <f t="shared" si="1"/>
+      <c r="J16" s="12">
+        <f>I16/I$25</f>
         <v>0.061046511627907</v>
       </c>
       <c r="K16" s="8">
         <v>3</v>
       </c>
-      <c r="L16" s="10">
-        <f t="shared" si="2"/>
+      <c r="L16" s="12">
+        <f>K16/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M16" s="8">
         <v>6</v>
       </c>
-      <c r="N16" s="10">
-        <f t="shared" si="3"/>
+      <c r="N16" s="12">
+        <f>M16/M$25</f>
         <v>0.0869565217391304</v>
       </c>
-      <c r="O16" s="11">
-        <f t="shared" si="4"/>
+      <c r="O16" s="13">
+        <f>J16/(L16+0.5*N16)</f>
         <v>0.616420873511061</v>
       </c>
     </row>
@@ -1821,8 +1818,7 @@
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="7"/>
@@ -1835,29 +1831,29 @@
         <v>6</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G17+H17</f>
         <v>18</v>
       </c>
-      <c r="J17" s="10">
-        <f t="shared" si="1"/>
+      <c r="J17" s="12">
+        <f>I17/I$25</f>
         <v>0.0523255813953488</v>
       </c>
       <c r="K17" s="8">
         <v>3</v>
       </c>
-      <c r="L17" s="10">
-        <f t="shared" si="2"/>
+      <c r="L17" s="12">
+        <f>K17/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M17" s="8">
         <v>5</v>
       </c>
-      <c r="N17" s="10">
-        <f t="shared" si="3"/>
+      <c r="N17" s="12">
+        <f>M17/M$25</f>
         <v>0.072463768115942</v>
       </c>
-      <c r="O17" s="11">
-        <f t="shared" si="4"/>
+      <c r="O17" s="13">
+        <f>J17/(L17+0.5*N17)</f>
         <v>0.570073439412485</v>
       </c>
     </row>
@@ -1865,8 +1861,7 @@
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="7"/>
@@ -1879,29 +1874,29 @@
         <v>7</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G18+H18</f>
         <v>19</v>
       </c>
-      <c r="J18" s="10">
-        <f t="shared" si="1"/>
+      <c r="J18" s="12">
+        <f>I18/I$25</f>
         <v>0.0552325581395349</v>
       </c>
       <c r="K18" s="8">
         <v>3</v>
       </c>
-      <c r="L18" s="10">
-        <f t="shared" si="2"/>
+      <c r="L18" s="12">
+        <f>K18/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M18" s="8">
         <v>6</v>
       </c>
-      <c r="N18" s="10">
-        <f t="shared" si="3"/>
+      <c r="N18" s="12">
+        <f>M18/M$25</f>
         <v>0.0869565217391304</v>
       </c>
-      <c r="O18" s="11">
-        <f t="shared" si="4"/>
+      <c r="O18" s="13">
+        <f>J18/(L18+0.5*N18)</f>
         <v>0.557714123652864</v>
       </c>
     </row>
@@ -1909,8 +1904,7 @@
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="7"/>
@@ -1923,29 +1917,29 @@
         <v>4</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G19+H19</f>
         <v>14</v>
       </c>
-      <c r="J19" s="10">
-        <f t="shared" si="1"/>
+      <c r="J19" s="12">
+        <f>I19/I$25</f>
         <v>0.0406976744186047</v>
       </c>
       <c r="K19" s="8">
         <v>2</v>
       </c>
-      <c r="L19" s="10">
-        <f t="shared" si="2"/>
+      <c r="L19" s="12">
+        <f>K19/K$25</f>
         <v>0.037037037037037</v>
       </c>
       <c r="M19" s="8">
         <v>5</v>
       </c>
-      <c r="N19" s="10">
-        <f t="shared" si="3"/>
+      <c r="N19" s="12">
+        <f>M19/M$25</f>
         <v>0.072463768115942</v>
       </c>
-      <c r="O19" s="11">
-        <f t="shared" si="4"/>
+      <c r="O19" s="13">
+        <f>J19/(L19+0.5*N19)</f>
         <v>0.555456171735242</v>
       </c>
     </row>
@@ -1953,8 +1947,7 @@
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="7"/>
@@ -1967,29 +1960,29 @@
         <v>5</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G20+H20</f>
         <v>17</v>
       </c>
-      <c r="J20" s="10">
-        <f t="shared" si="1"/>
+      <c r="J20" s="12">
+        <f>I20/I$25</f>
         <v>0.0494186046511628</v>
       </c>
       <c r="K20" s="8">
         <v>3</v>
       </c>
-      <c r="L20" s="10">
-        <f t="shared" si="2"/>
+      <c r="L20" s="12">
+        <f>K20/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M20" s="8">
         <v>6</v>
       </c>
-      <c r="N20" s="10">
-        <f t="shared" si="3"/>
+      <c r="N20" s="12">
+        <f>M20/M$25</f>
         <v>0.0869565217391304</v>
       </c>
-      <c r="O20" s="11">
-        <f t="shared" si="4"/>
+      <c r="O20" s="13">
+        <f>J20/(L20+0.5*N20)</f>
         <v>0.499007373794668</v>
       </c>
     </row>
@@ -1997,8 +1990,7 @@
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="7"/>
@@ -2011,29 +2003,29 @@
         <v>3</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G21+H21</f>
         <v>15</v>
       </c>
-      <c r="J21" s="10">
-        <f t="shared" si="1"/>
+      <c r="J21" s="12">
+        <f>I21/I$25</f>
         <v>0.0436046511627907</v>
       </c>
       <c r="K21" s="8">
         <v>4</v>
       </c>
-      <c r="L21" s="10">
-        <f t="shared" si="2"/>
+      <c r="L21" s="12">
+        <f>K21/K$25</f>
         <v>0.0740740740740741</v>
       </c>
       <c r="M21" s="8">
         <v>2</v>
       </c>
-      <c r="N21" s="10">
-        <f t="shared" si="3"/>
+      <c r="N21" s="12">
+        <f>M21/M$25</f>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O21" s="11">
-        <f t="shared" si="4"/>
+      <c r="O21" s="13">
+        <f>J21/(L21+0.5*N21)</f>
         <v>0.492336152219873</v>
       </c>
     </row>
@@ -2041,8 +2033,7 @@
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="7"/>
@@ -2055,29 +2046,29 @@
         <v>4</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G22+H22</f>
         <v>12</v>
       </c>
-      <c r="J22" s="10">
-        <f t="shared" si="1"/>
+      <c r="J22" s="12">
+        <f>I22/I$25</f>
         <v>0.0348837209302326</v>
       </c>
       <c r="K22" s="8">
         <v>3</v>
       </c>
-      <c r="L22" s="10">
-        <f t="shared" si="2"/>
+      <c r="L22" s="12">
+        <f>K22/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M22" s="8">
         <v>3</v>
       </c>
-      <c r="N22" s="10">
-        <f t="shared" si="3"/>
+      <c r="N22" s="12">
+        <f>M22/M$25</f>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O22" s="11">
-        <f t="shared" si="4"/>
+      <c r="O22" s="13">
+        <f>J22/(L22+0.5*N22)</f>
         <v>0.451308139534884</v>
       </c>
     </row>
@@ -2085,8 +2076,7 @@
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="7"/>
@@ -2099,29 +2089,29 @@
         <v>6</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G23+H23</f>
         <v>14</v>
       </c>
-      <c r="J23" s="10">
-        <f t="shared" si="1"/>
+      <c r="J23" s="12">
+        <f>I23/I$25</f>
         <v>0.0406976744186047</v>
       </c>
       <c r="K23" s="8">
         <v>3</v>
       </c>
-      <c r="L23" s="10">
-        <f t="shared" si="2"/>
+      <c r="L23" s="12">
+        <f>K23/K$25</f>
         <v>0.0555555555555556</v>
       </c>
       <c r="M23" s="8">
         <v>5</v>
       </c>
-      <c r="N23" s="10">
-        <f t="shared" si="3"/>
+      <c r="N23" s="12">
+        <f>M23/M$25</f>
         <v>0.072463768115942</v>
       </c>
-      <c r="O23" s="11">
-        <f t="shared" si="4"/>
+      <c r="O23" s="13">
+        <f>J23/(L23+0.5*N23)</f>
         <v>0.443390452876377</v>
       </c>
     </row>
@@ -2129,8 +2119,7 @@
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="7"/>
@@ -2143,29 +2132,29 @@
         <v>5</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="0"/>
+        <f>2*G24+H24</f>
         <v>13</v>
       </c>
-      <c r="J24" s="10">
-        <f t="shared" si="1"/>
+      <c r="J24" s="12">
+        <f>I24/I$25</f>
         <v>0.0377906976744186</v>
       </c>
       <c r="K24" s="8">
         <v>4</v>
       </c>
-      <c r="L24" s="10">
-        <f t="shared" si="2"/>
+      <c r="L24" s="12">
+        <f>K24/K$25</f>
         <v>0.0740740740740741</v>
       </c>
       <c r="M24" s="8">
         <v>2</v>
       </c>
-      <c r="N24" s="10">
-        <f t="shared" si="3"/>
+      <c r="N24" s="12">
+        <f>M24/M$25</f>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O24" s="11">
-        <f t="shared" si="4"/>
+      <c r="O24" s="13">
+        <f>J24/(L24+0.5*N24)</f>
         <v>0.42669133192389</v>
       </c>
     </row>
@@ -2173,88 +2162,48 @@
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="G25" s="8">
-        <f t="shared" ref="G25:K25" si="5">SUM(G5:G24)</f>
+      <c r="B25" s="10"/>
+      <c r="G25" s="11">
+        <f t="shared" ref="G25:K25" si="0">SUM(G5:G24)</f>
         <v>114</v>
       </c>
-      <c r="H25" s="8">
-        <f t="shared" si="5"/>
+      <c r="H25" s="11">
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="11">
+        <f>2*G25+H25</f>
+        <v>344</v>
+      </c>
+      <c r="J25" s="14">
+        <f>I25/I$25</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
-      </c>
-      <c r="J25" s="10">
-        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="L25" s="14">
+        <f>K25/K$25</f>
         <v>1</v>
       </c>
-      <c r="K25" s="8">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="L25" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="8">
+      <c r="M25" s="11">
         <f>SUM(M5:M24)</f>
         <v>69</v>
       </c>
-      <c r="N25" s="10">
-        <f t="shared" si="3"/>
+      <c r="N25" s="14">
+        <f>M25/M$25</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <sortState ref="A5:O24">
+    <sortCondition ref="O5:O24" descending="1"/>
+  </sortState>
+  <mergeCells count="3">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/非受控文档/过程文档/优先级打分表（改）/学生优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/学生优先级打分表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>学生注册</t>
   </si>
   <si>
-    <t>通过学号，学校的邮箱，姓名和密码进行注册，发送注册信息至管理员由管理员审核</t>
+    <t>通过学号，学校的邮箱，姓名，电话号码，身份证以及上传身份证正反面照片和密码进行注册，发送注册信息至管理员由管理员审核</t>
   </si>
   <si>
     <t>学生的登录、注销</t>
@@ -186,8 +186,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
@@ -236,7 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +257,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -272,14 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -289,15 +358,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,67 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -381,19 +381,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,163 +525,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,8 +578,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,33 +603,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,23 +649,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -680,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,137 +692,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,16 +856,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:O24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1315,29 +1309,29 @@
         <v>8</v>
       </c>
       <c r="I5" s="8">
-        <f>2*G5+H5</f>
+        <f t="shared" ref="I5:I25" si="0">2*G5+H5</f>
         <v>24</v>
       </c>
-      <c r="J5" s="12">
-        <f>I5/I$25</f>
+      <c r="J5" s="11">
+        <f t="shared" ref="J5:J25" si="1">I5/I$25</f>
         <v>0.0697674418604651</v>
       </c>
       <c r="K5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="12">
-        <f>K5/K$25</f>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L25" si="2">K5/K$25</f>
         <v>0.0185185185185185</v>
       </c>
       <c r="M5" s="8">
         <v>4</v>
       </c>
-      <c r="N5" s="12">
-        <f>M5/M$25</f>
+      <c r="N5" s="11">
+        <f t="shared" ref="N5:N25" si="3">M5/M$25</f>
         <v>0.0579710144927536</v>
       </c>
-      <c r="O5" s="13">
-        <f>J5/(L5+0.5*N5)</f>
+      <c r="O5" s="12">
+        <f t="shared" ref="O5:O24" si="4">J5/(L5+0.5*N5)</f>
         <v>1.46866377611352</v>
       </c>
     </row>
@@ -1358,29 +1352,29 @@
         <v>8</v>
       </c>
       <c r="I6" s="8">
-        <f>2*G6+H6</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J6" s="12">
-        <f>I6/I$25</f>
+      <c r="J6" s="11">
+        <f t="shared" si="1"/>
         <v>0.0581395348837209</v>
       </c>
       <c r="K6" s="8">
         <v>1</v>
       </c>
-      <c r="L6" s="12">
-        <f>K6/K$25</f>
+      <c r="L6" s="11">
+        <f t="shared" si="2"/>
         <v>0.0185185185185185</v>
       </c>
       <c r="M6" s="8">
         <v>4</v>
       </c>
-      <c r="N6" s="12">
-        <f>M6/M$25</f>
+      <c r="N6" s="11">
+        <f t="shared" si="3"/>
         <v>0.0579710144927536</v>
       </c>
-      <c r="O6" s="13">
-        <f>J6/(L6+0.5*N6)</f>
+      <c r="O6" s="12">
+        <f t="shared" si="4"/>
         <v>1.2238864800946</v>
       </c>
     </row>
@@ -1401,29 +1395,29 @@
         <v>7</v>
       </c>
       <c r="I7" s="8">
-        <f>2*G7+H7</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J7" s="12">
-        <f>I7/I$25</f>
+      <c r="J7" s="11">
+        <f t="shared" si="1"/>
         <v>0.061046511627907</v>
       </c>
       <c r="K7" s="8">
         <v>2</v>
       </c>
-      <c r="L7" s="12">
-        <f>K7/K$25</f>
+      <c r="L7" s="11">
+        <f t="shared" si="2"/>
         <v>0.037037037037037</v>
       </c>
       <c r="M7" s="8">
         <v>3</v>
       </c>
-      <c r="N7" s="12">
-        <f>M7/M$25</f>
+      <c r="N7" s="11">
+        <f t="shared" si="3"/>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O7" s="13">
-        <f>J7/(L7+0.5*N7)</f>
+      <c r="O7" s="12">
+        <f t="shared" si="4"/>
         <v>1.03862695125836</v>
       </c>
     </row>
@@ -1444,29 +1438,29 @@
         <v>5</v>
       </c>
       <c r="I8" s="8">
-        <f>2*G8+H8</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J8" s="12">
-        <f>I8/I$25</f>
+      <c r="J8" s="11">
+        <f t="shared" si="1"/>
         <v>0.0494186046511628</v>
       </c>
       <c r="K8" s="8">
         <v>2</v>
       </c>
-      <c r="L8" s="12">
-        <f>K8/K$25</f>
+      <c r="L8" s="11">
+        <f t="shared" si="2"/>
         <v>0.037037037037037</v>
       </c>
       <c r="M8" s="8">
         <v>2</v>
       </c>
-      <c r="N8" s="12">
-        <f>M8/M$25</f>
+      <c r="N8" s="11">
+        <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O8" s="13">
-        <f>J8/(L8+0.5*N8)</f>
+      <c r="O8" s="12">
+        <f t="shared" si="4"/>
         <v>0.959029796511628</v>
       </c>
     </row>
@@ -1487,29 +1481,29 @@
         <v>7</v>
       </c>
       <c r="I9" s="8">
-        <f>2*G9+H9</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J9" s="12">
-        <f>I9/I$25</f>
+      <c r="J9" s="11">
+        <f t="shared" si="1"/>
         <v>0.061046511627907</v>
       </c>
       <c r="K9" s="8">
         <v>3</v>
       </c>
-      <c r="L9" s="12">
-        <f>K9/K$25</f>
+      <c r="L9" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M9" s="8">
         <v>2</v>
       </c>
-      <c r="N9" s="12">
-        <f>M9/M$25</f>
+      <c r="N9" s="11">
+        <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O9" s="13">
-        <f>J9/(L9+0.5*N9)</f>
+      <c r="O9" s="12">
+        <f t="shared" si="4"/>
         <v>0.8714915797915</v>
       </c>
     </row>
@@ -1530,29 +1524,29 @@
         <v>4</v>
       </c>
       <c r="I10" s="8">
-        <f>2*G10+H10</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J10" s="12">
-        <f>I10/I$25</f>
+      <c r="J10" s="11">
+        <f t="shared" si="1"/>
         <v>0.0406976744186047</v>
       </c>
       <c r="K10" s="8">
         <v>2</v>
       </c>
-      <c r="L10" s="12">
-        <f>K10/K$25</f>
+      <c r="L10" s="11">
+        <f t="shared" si="2"/>
         <v>0.037037037037037</v>
       </c>
       <c r="M10" s="8">
         <v>2</v>
       </c>
-      <c r="N10" s="12">
-        <f>M10/M$25</f>
+      <c r="N10" s="11">
+        <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O10" s="13">
-        <f>J10/(L10+0.5*N10)</f>
+      <c r="O10" s="12">
+        <f t="shared" si="4"/>
         <v>0.789789244186047</v>
       </c>
     </row>
@@ -1573,29 +1567,29 @@
         <v>7</v>
       </c>
       <c r="I11" s="8">
-        <f>2*G11+H11</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J11" s="12">
-        <f>I11/I$25</f>
+      <c r="J11" s="11">
+        <f t="shared" si="1"/>
         <v>0.0552325581395349</v>
       </c>
       <c r="K11" s="8">
         <v>3</v>
       </c>
-      <c r="L11" s="12">
-        <f>K11/K$25</f>
+      <c r="L11" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M11" s="8">
         <v>3</v>
       </c>
-      <c r="N11" s="12">
-        <f>M11/M$25</f>
+      <c r="N11" s="11">
+        <f t="shared" si="3"/>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O11" s="13">
-        <f>J11/(L11+0.5*N11)</f>
+      <c r="O11" s="12">
+        <f t="shared" si="4"/>
         <v>0.714571220930233</v>
       </c>
     </row>
@@ -1616,29 +1610,29 @@
         <v>7</v>
       </c>
       <c r="I12" s="8">
-        <f>2*G12+H12</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J12" s="12">
-        <f>I12/I$25</f>
+      <c r="J12" s="11">
+        <f t="shared" si="1"/>
         <v>0.0552325581395349</v>
       </c>
       <c r="K12" s="8">
         <v>3</v>
       </c>
-      <c r="L12" s="12">
-        <f>K12/K$25</f>
+      <c r="L12" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M12" s="8">
         <v>3</v>
       </c>
-      <c r="N12" s="12">
-        <f>M12/M$25</f>
+      <c r="N12" s="11">
+        <f t="shared" si="3"/>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O12" s="13">
-        <f>J12/(L12+0.5*N12)</f>
+      <c r="O12" s="12">
+        <f t="shared" si="4"/>
         <v>0.714571220930233</v>
       </c>
     </row>
@@ -1659,29 +1653,29 @@
         <v>6</v>
       </c>
       <c r="I13" s="8">
-        <f>2*G13+H13</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J13" s="12">
-        <f>I13/I$25</f>
+      <c r="J13" s="11">
+        <f t="shared" si="1"/>
         <v>0.0465116279069767</v>
       </c>
       <c r="K13" s="8">
         <v>3</v>
       </c>
-      <c r="L13" s="12">
-        <f>K13/K$25</f>
+      <c r="L13" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M13" s="8">
         <v>2</v>
       </c>
-      <c r="N13" s="12">
-        <f>M13/M$25</f>
+      <c r="N13" s="11">
+        <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O13" s="13">
-        <f>J13/(L13+0.5*N13)</f>
+      <c r="O13" s="12">
+        <f t="shared" si="4"/>
         <v>0.663993584603047</v>
       </c>
     </row>
@@ -1702,29 +1696,29 @@
         <v>5</v>
       </c>
       <c r="I14" s="8">
-        <f>2*G14+H14</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J14" s="12">
-        <f>I14/I$25</f>
+      <c r="J14" s="11">
+        <f t="shared" si="1"/>
         <v>0.0436046511627907</v>
       </c>
       <c r="K14" s="8">
         <v>3</v>
       </c>
-      <c r="L14" s="12">
-        <f>K14/K$25</f>
+      <c r="L14" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M14" s="8">
         <v>2</v>
       </c>
-      <c r="N14" s="12">
-        <f>M14/M$25</f>
+      <c r="N14" s="11">
+        <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O14" s="13">
-        <f>J14/(L14+0.5*N14)</f>
+      <c r="O14" s="12">
+        <f t="shared" si="4"/>
         <v>0.622493985565357</v>
       </c>
     </row>
@@ -1745,29 +1739,29 @@
         <v>5</v>
       </c>
       <c r="I15" s="8">
-        <f>2*G15+H15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J15" s="12">
-        <f>I15/I$25</f>
+      <c r="J15" s="11">
+        <f t="shared" si="1"/>
         <v>0.0436046511627907</v>
       </c>
       <c r="K15" s="8">
         <v>3</v>
       </c>
-      <c r="L15" s="12">
-        <f>K15/K$25</f>
+      <c r="L15" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M15" s="8">
         <v>2</v>
       </c>
-      <c r="N15" s="12">
-        <f>M15/M$25</f>
+      <c r="N15" s="11">
+        <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O15" s="13">
-        <f>J15/(L15+0.5*N15)</f>
+      <c r="O15" s="12">
+        <f t="shared" si="4"/>
         <v>0.622493985565357</v>
       </c>
     </row>
@@ -1788,29 +1782,29 @@
         <v>7</v>
       </c>
       <c r="I16" s="8">
-        <f>2*G16+H16</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J16" s="12">
-        <f>I16/I$25</f>
+      <c r="J16" s="11">
+        <f t="shared" si="1"/>
         <v>0.061046511627907</v>
       </c>
       <c r="K16" s="8">
         <v>3</v>
       </c>
-      <c r="L16" s="12">
-        <f>K16/K$25</f>
+      <c r="L16" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M16" s="8">
         <v>6</v>
       </c>
-      <c r="N16" s="12">
-        <f>M16/M$25</f>
+      <c r="N16" s="11">
+        <f t="shared" si="3"/>
         <v>0.0869565217391304</v>
       </c>
-      <c r="O16" s="13">
-        <f>J16/(L16+0.5*N16)</f>
+      <c r="O16" s="12">
+        <f t="shared" si="4"/>
         <v>0.616420873511061</v>
       </c>
     </row>
@@ -1831,29 +1825,29 @@
         <v>6</v>
       </c>
       <c r="I17" s="8">
-        <f>2*G17+H17</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J17" s="12">
-        <f>I17/I$25</f>
+      <c r="J17" s="11">
+        <f t="shared" si="1"/>
         <v>0.0523255813953488</v>
       </c>
       <c r="K17" s="8">
         <v>3</v>
       </c>
-      <c r="L17" s="12">
-        <f>K17/K$25</f>
+      <c r="L17" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M17" s="8">
         <v>5</v>
       </c>
-      <c r="N17" s="12">
-        <f>M17/M$25</f>
+      <c r="N17" s="11">
+        <f t="shared" si="3"/>
         <v>0.072463768115942</v>
       </c>
-      <c r="O17" s="13">
-        <f>J17/(L17+0.5*N17)</f>
+      <c r="O17" s="12">
+        <f t="shared" si="4"/>
         <v>0.570073439412485</v>
       </c>
     </row>
@@ -1874,29 +1868,29 @@
         <v>7</v>
       </c>
       <c r="I18" s="8">
-        <f>2*G18+H18</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J18" s="12">
-        <f>I18/I$25</f>
+      <c r="J18" s="11">
+        <f t="shared" si="1"/>
         <v>0.0552325581395349</v>
       </c>
       <c r="K18" s="8">
         <v>3</v>
       </c>
-      <c r="L18" s="12">
-        <f>K18/K$25</f>
+      <c r="L18" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M18" s="8">
         <v>6</v>
       </c>
-      <c r="N18" s="12">
-        <f>M18/M$25</f>
+      <c r="N18" s="11">
+        <f t="shared" si="3"/>
         <v>0.0869565217391304</v>
       </c>
-      <c r="O18" s="13">
-        <f>J18/(L18+0.5*N18)</f>
+      <c r="O18" s="12">
+        <f t="shared" si="4"/>
         <v>0.557714123652864</v>
       </c>
     </row>
@@ -1917,29 +1911,29 @@
         <v>4</v>
       </c>
       <c r="I19" s="8">
-        <f>2*G19+H19</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J19" s="12">
-        <f>I19/I$25</f>
+      <c r="J19" s="11">
+        <f t="shared" si="1"/>
         <v>0.0406976744186047</v>
       </c>
       <c r="K19" s="8">
         <v>2</v>
       </c>
-      <c r="L19" s="12">
-        <f>K19/K$25</f>
+      <c r="L19" s="11">
+        <f t="shared" si="2"/>
         <v>0.037037037037037</v>
       </c>
       <c r="M19" s="8">
         <v>5</v>
       </c>
-      <c r="N19" s="12">
-        <f>M19/M$25</f>
+      <c r="N19" s="11">
+        <f t="shared" si="3"/>
         <v>0.072463768115942</v>
       </c>
-      <c r="O19" s="13">
-        <f>J19/(L19+0.5*N19)</f>
+      <c r="O19" s="12">
+        <f t="shared" si="4"/>
         <v>0.555456171735242</v>
       </c>
     </row>
@@ -1960,29 +1954,29 @@
         <v>5</v>
       </c>
       <c r="I20" s="8">
-        <f>2*G20+H20</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J20" s="12">
-        <f>I20/I$25</f>
+      <c r="J20" s="11">
+        <f t="shared" si="1"/>
         <v>0.0494186046511628</v>
       </c>
       <c r="K20" s="8">
         <v>3</v>
       </c>
-      <c r="L20" s="12">
-        <f>K20/K$25</f>
+      <c r="L20" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M20" s="8">
         <v>6</v>
       </c>
-      <c r="N20" s="12">
-        <f>M20/M$25</f>
+      <c r="N20" s="11">
+        <f t="shared" si="3"/>
         <v>0.0869565217391304</v>
       </c>
-      <c r="O20" s="13">
-        <f>J20/(L20+0.5*N20)</f>
+      <c r="O20" s="12">
+        <f t="shared" si="4"/>
         <v>0.499007373794668</v>
       </c>
     </row>
@@ -2003,29 +1997,29 @@
         <v>3</v>
       </c>
       <c r="I21" s="8">
-        <f>2*G21+H21</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J21" s="12">
-        <f>I21/I$25</f>
+      <c r="J21" s="11">
+        <f t="shared" si="1"/>
         <v>0.0436046511627907</v>
       </c>
       <c r="K21" s="8">
         <v>4</v>
       </c>
-      <c r="L21" s="12">
-        <f>K21/K$25</f>
+      <c r="L21" s="11">
+        <f t="shared" si="2"/>
         <v>0.0740740740740741</v>
       </c>
       <c r="M21" s="8">
         <v>2</v>
       </c>
-      <c r="N21" s="12">
-        <f>M21/M$25</f>
+      <c r="N21" s="11">
+        <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O21" s="13">
-        <f>J21/(L21+0.5*N21)</f>
+      <c r="O21" s="12">
+        <f t="shared" si="4"/>
         <v>0.492336152219873</v>
       </c>
     </row>
@@ -2046,29 +2040,29 @@
         <v>4</v>
       </c>
       <c r="I22" s="8">
-        <f>2*G22+H22</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J22" s="12">
-        <f>I22/I$25</f>
+      <c r="J22" s="11">
+        <f t="shared" si="1"/>
         <v>0.0348837209302326</v>
       </c>
       <c r="K22" s="8">
         <v>3</v>
       </c>
-      <c r="L22" s="12">
-        <f>K22/K$25</f>
+      <c r="L22" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M22" s="8">
         <v>3</v>
       </c>
-      <c r="N22" s="12">
-        <f>M22/M$25</f>
+      <c r="N22" s="11">
+        <f t="shared" si="3"/>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O22" s="13">
-        <f>J22/(L22+0.5*N22)</f>
+      <c r="O22" s="12">
+        <f t="shared" si="4"/>
         <v>0.451308139534884</v>
       </c>
     </row>
@@ -2089,29 +2083,29 @@
         <v>6</v>
       </c>
       <c r="I23" s="8">
-        <f>2*G23+H23</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J23" s="12">
-        <f>I23/I$25</f>
+      <c r="J23" s="11">
+        <f t="shared" si="1"/>
         <v>0.0406976744186047</v>
       </c>
       <c r="K23" s="8">
         <v>3</v>
       </c>
-      <c r="L23" s="12">
-        <f>K23/K$25</f>
+      <c r="L23" s="11">
+        <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
       <c r="M23" s="8">
         <v>5</v>
       </c>
-      <c r="N23" s="12">
-        <f>M23/M$25</f>
+      <c r="N23" s="11">
+        <f t="shared" si="3"/>
         <v>0.072463768115942</v>
       </c>
-      <c r="O23" s="13">
-        <f>J23/(L23+0.5*N23)</f>
+      <c r="O23" s="12">
+        <f t="shared" si="4"/>
         <v>0.443390452876377</v>
       </c>
     </row>
@@ -2132,29 +2126,29 @@
         <v>5</v>
       </c>
       <c r="I24" s="8">
-        <f>2*G24+H24</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J24" s="12">
-        <f>I24/I$25</f>
+      <c r="J24" s="11">
+        <f t="shared" si="1"/>
         <v>0.0377906976744186</v>
       </c>
       <c r="K24" s="8">
         <v>4</v>
       </c>
-      <c r="L24" s="12">
-        <f>K24/K$25</f>
+      <c r="L24" s="11">
+        <f t="shared" si="2"/>
         <v>0.0740740740740741</v>
       </c>
       <c r="M24" s="8">
         <v>2</v>
       </c>
-      <c r="N24" s="12">
-        <f>M24/M$25</f>
+      <c r="N24" s="11">
+        <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O24" s="13">
-        <f>J24/(L24+0.5*N24)</f>
+      <c r="O24" s="12">
+        <f t="shared" si="4"/>
         <v>0.42669133192389</v>
       </c>
     </row>
@@ -2163,36 +2157,36 @@
         <v>54</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="G25" s="11">
-        <f t="shared" ref="G25:K25" si="0">SUM(G5:G24)</f>
+      <c r="G25" s="8">
+        <f t="shared" ref="G25:K25" si="5">SUM(G5:G24)</f>
         <v>114</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="8">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="I25" s="8">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="I25" s="11">
-        <f>2*G25+H25</f>
         <v>344</v>
       </c>
-      <c r="J25" s="14">
-        <f>I25/I$25</f>
+      <c r="J25" s="11">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K25" s="11">
-        <f t="shared" si="0"/>
+      <c r="K25" s="8">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="L25" s="14">
-        <f>K25/K$25</f>
+      <c r="L25" s="11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="8">
         <f>SUM(M5:M24)</f>
         <v>69</v>
       </c>
-      <c r="N25" s="14">
-        <f>M25/M$25</f>
+      <c r="N25" s="11">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>

--- a/非受控文档/过程文档/优先级打分表（改）/学生优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/学生优先级打分表.xlsx
@@ -64,16 +64,16 @@
     <t>通过学号，学校的邮箱，姓名，电话号码，身份证以及上传身份证正反面照片和密码进行注册，发送注册信息至管理员由管理员审核</t>
   </si>
   <si>
-    <t>学生的登录、注销</t>
-  </si>
-  <si>
-    <t>实现登录和退出登录</t>
-  </si>
-  <si>
-    <t>全网搜索</t>
-  </si>
-  <si>
-    <t>学生可以在网站首页的搜索框内输入关键字来进行全网搜索相应内容</t>
+    <t>学生的登录</t>
+  </si>
+  <si>
+    <t>实现登录</t>
+  </si>
+  <si>
+    <t>全网搜索，帖子搜索</t>
+  </si>
+  <si>
+    <t>学生可以在网站首页的搜索框内输入关键字来进行全网搜索相应内容；以及在总论坛和课程论坛内可进行帖子的搜索</t>
   </si>
   <si>
     <t>修改个人信息，头像和密码</t>
@@ -82,7 +82,7 @@
     <t>学生可以修改个人信息（微信，个人简介等信息），学生也可以修改头像和修改自己的密码</t>
   </si>
   <si>
-    <t>课程搜索</t>
+    <t>课程搜索以及课程资料搜索</t>
   </si>
   <si>
     <t>学生可以输入关键字在自己开设的课程内总搜索，像百度形式返回结果列表</t>
@@ -94,10 +94,10 @@
     <t>学生可以对“我的消息”中的消息进行删除</t>
   </si>
   <si>
-    <t>搜索消息</t>
-  </si>
-  <si>
-    <t>学生有“我的消息”来接受系统通知，回复我的信息或者是关注课程信息列表，学生可以根据消息分类筛选和关键字搜索相关信息</t>
+    <t>搜索消息，查询课程公告</t>
+  </si>
+  <si>
+    <t>学生有“我的消息”来接受系统通知，回复我的信息或者是关注课程信息列表，学生可以根据消息分类筛选和关键字搜索相关信息；在课程栏或者首页查询公告</t>
   </si>
   <si>
     <t>下载附件</t>
@@ -154,10 +154,10 @@
     <t>学生可以进行在线答疑，在发送内容的时候可以上传附件和图片</t>
   </si>
   <si>
-    <t>收藏、取消收藏帖子</t>
-  </si>
-  <si>
-    <t>学生可以在论坛中对好的帖子进行收藏，如果要取消收藏可以去“我的收藏中”点击取消收藏按钮</t>
+    <t>收藏、取消收藏帖子，对帖子进行排序</t>
+  </si>
+  <si>
+    <t>学生可以在论坛中对好的帖子进行收藏，如果要取消收藏可以去“我的收藏中”点击取消收藏按钮。根据时间、收藏量等进行帖子的排序</t>
   </si>
   <si>
     <t>意见反馈</t>
@@ -166,10 +166,10 @@
     <t>学生可以在网站底部的意见反馈中填写意见反馈内容（如向管理员申诉信息等）</t>
   </si>
   <si>
-    <t>在线预览、下载答疑记录</t>
-  </si>
-  <si>
-    <t>学生可以在线预览往期的答疑记录并且刻意下载</t>
+    <t>在线预览、下载答疑记录，中途保存答疑记录</t>
+  </si>
+  <si>
+    <t>学生可以在线预览往期的答疑记录并且刻意下载。在中途在线答疑时，可随时进行记录的保存</t>
   </si>
   <si>
     <t>关注、取关课程和学生</t>
@@ -185,12 +185,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -228,6 +227,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -235,8 +309,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,91 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,28 +364,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -381,6 +380,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,175 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +578,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,16 +602,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,21 +618,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +647,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -845,6 +844,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,9 +859,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,8 +1182,8 @@
   <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1192,6 +1191,7 @@
     <col min="1" max="1" width="38.625" customWidth="1"/>
     <col min="2" max="2" width="117.75" customWidth="1"/>
     <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="15" max="15" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:15">
@@ -1299,40 +1299,40 @@
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9">
         <v>8</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <v>8</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="9">
         <f t="shared" ref="I5:I25" si="0">2*G5+H5</f>
         <v>24</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="12">
         <f t="shared" ref="J5:J25" si="1">I5/I$25</f>
         <v>0.0697674418604651</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <f t="shared" ref="L5:L25" si="2">K5/K$25</f>
         <v>0.0185185185185185</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="9">
         <v>4</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <f t="shared" ref="N5:N25" si="3">M5/M$25</f>
         <v>0.0579710144927536</v>
       </c>
-      <c r="O5" s="12">
-        <f t="shared" ref="O5:O24" si="4">J5/(L5+0.5*N5)</f>
-        <v>1.46866377611352</v>
+      <c r="O5">
+        <f>J5/(L5*K3)+(N5*M3)</f>
+        <v>3.7964273677115</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:15">
@@ -1342,40 +1342,40 @@
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9">
         <v>6</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>8</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="12">
         <f t="shared" si="1"/>
         <v>0.0581395348837209</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>1</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="12">
         <f t="shared" si="2"/>
         <v>0.0185185185185185</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>4</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="12">
         <f t="shared" si="3"/>
         <v>0.0579710144927536</v>
       </c>
-      <c r="O6" s="12">
-        <f t="shared" si="4"/>
-        <v>1.2238864800946</v>
+      <c r="O6">
+        <f>J6/(L6*K3)+(N6*M3)</f>
+        <v>3.16852039096731</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:15">
@@ -1385,40 +1385,40 @@
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
         <v>7</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>7</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="12">
         <f t="shared" si="1"/>
         <v>0.061046511627907</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="9">
         <v>2</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="12">
         <f t="shared" si="2"/>
         <v>0.037037037037037</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="9">
         <v>3</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="12">
         <f t="shared" si="3"/>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O7" s="12">
-        <f t="shared" si="4"/>
-        <v>1.03862695125836</v>
+      <c r="O7">
+        <f>J7/(L7*K3)+(N7*M3)</f>
+        <v>1.66999494438827</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:15">
@@ -1428,40 +1428,40 @@
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9">
         <v>6</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>5</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="12">
         <f t="shared" si="1"/>
         <v>0.0494186046511628</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="9">
         <v>2</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="12">
         <f t="shared" si="2"/>
         <v>0.037037037037037</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>2</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="12">
         <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O8" s="12">
-        <f t="shared" si="4"/>
-        <v>0.959029796511628</v>
+      <c r="O8">
+        <f>J8/(L8*K3)+(N8*M3)</f>
+        <v>1.34879507920459</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:15">
@@ -1471,40 +1471,40 @@
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9">
         <v>7</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <v>7</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="12">
         <f t="shared" si="1"/>
         <v>0.061046511627907</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="9">
         <v>3</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="9">
         <v>2</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="12">
         <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O9" s="12">
-        <f t="shared" si="4"/>
-        <v>0.8714915797915</v>
+      <c r="O9">
+        <f>J9/(L9*K3)+(N9*M3)</f>
+        <v>1.11332996292551</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:15">
@@ -1514,83 +1514,83 @@
       <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9">
         <v>5</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>4</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="12">
         <f t="shared" si="1"/>
         <v>0.0406976744186047</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="9">
         <v>2</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="12">
         <f t="shared" si="2"/>
         <v>0.037037037037037</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="9">
         <v>2</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="12">
         <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O10" s="12">
-        <f t="shared" si="4"/>
-        <v>0.789789244186047</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:15">
+      <c r="O10">
+        <f>J10/(L10*K3)+(N10*M3)</f>
+        <v>1.11332996292552</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9">
         <v>6</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="9">
         <v>7</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="12">
         <f t="shared" si="1"/>
         <v>0.0552325581395349</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="9">
         <v>3</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="9">
         <v>3</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="12">
         <f t="shared" si="3"/>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O11" s="12">
-        <f t="shared" si="4"/>
-        <v>0.714571220930233</v>
+      <c r="O11">
+        <f>J11/(L11*K3)+(N11*M3)</f>
+        <v>1.01592517694641</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:15">
@@ -1600,40 +1600,40 @@
       <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9">
         <v>6</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>7</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="12">
         <f t="shared" si="1"/>
         <v>0.0552325581395349</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="9">
         <v>3</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="9">
         <v>3</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="12">
         <f t="shared" si="3"/>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O12" s="12">
-        <f t="shared" si="4"/>
-        <v>0.714571220930233</v>
+      <c r="O12">
+        <f>J12/(L12*K3)+(N12*M3)</f>
+        <v>1.01592517694641</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:15">
@@ -1643,40 +1643,40 @@
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9">
         <v>5</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="9">
         <v>6</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="12">
         <f t="shared" si="1"/>
         <v>0.0465116279069767</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="9">
         <v>3</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="9">
         <v>2</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="12">
         <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O13" s="12">
-        <f t="shared" si="4"/>
-        <v>0.663993584603047</v>
+      <c r="O13">
+        <f>J13/(L13*K3)+(N13*M3)</f>
+        <v>0.851702055948768</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:15">
@@ -1686,40 +1686,40 @@
       <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9">
         <v>5</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <v>5</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="12">
         <f t="shared" si="1"/>
         <v>0.0436046511627907</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="9">
         <v>3</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="9">
         <v>2</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="12">
         <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O14" s="12">
-        <f t="shared" si="4"/>
-        <v>0.622493985565357</v>
+      <c r="O14">
+        <f>J14/(L14*K3)+(N14*M3)</f>
+        <v>0.79937647455342</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:15">
@@ -1729,40 +1729,40 @@
       <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9">
         <v>5</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="9">
         <v>5</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="12">
         <f t="shared" si="1"/>
         <v>0.0436046511627907</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="9">
         <v>3</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="9">
         <v>2</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="12">
         <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O15" s="12">
-        <f t="shared" si="4"/>
-        <v>0.622493985565357</v>
+      <c r="O15">
+        <f>J15/(L15*K3)+(N15*M3)</f>
+        <v>0.79937647455342</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:15">
@@ -1772,40 +1772,40 @@
       <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9">
         <v>7</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="9">
         <v>7</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="12">
         <f t="shared" si="1"/>
         <v>0.061046511627907</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="9">
         <v>3</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="9">
         <v>6</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="12">
         <f t="shared" si="3"/>
         <v>0.0869565217391304</v>
       </c>
-      <c r="O16" s="12">
-        <f t="shared" si="4"/>
-        <v>0.616420873511061</v>
+      <c r="O16">
+        <f>J16/(L16*K3)+(N16*M3)</f>
+        <v>1.14231547017189</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:15">
@@ -1815,40 +1815,40 @@
       <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9">
         <v>6</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="9">
         <v>6</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="12">
         <f t="shared" si="1"/>
         <v>0.0523255813953488</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="9">
         <v>3</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="9">
         <v>5</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="12">
         <f t="shared" si="3"/>
         <v>0.072463768115942</v>
       </c>
-      <c r="O17" s="12">
-        <f t="shared" si="4"/>
-        <v>0.570073439412485</v>
+      <c r="O17">
+        <f>J17/(L17*K3)+(N17*M3)</f>
+        <v>0.978092349174249</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:15">
@@ -1858,40 +1858,40 @@
       <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9">
         <v>6</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="9">
         <v>7</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="12">
         <f t="shared" si="1"/>
         <v>0.0552325581395349</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="9">
         <v>3</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="9">
         <v>6</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="12">
         <f t="shared" si="3"/>
         <v>0.0869565217391304</v>
       </c>
-      <c r="O18" s="12">
-        <f t="shared" si="4"/>
-        <v>0.557714123652864</v>
+      <c r="O18">
+        <f>J18/(L18*K3)+(N18*M3)</f>
+        <v>1.03766430738119</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:15">
@@ -1901,40 +1901,40 @@
       <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9">
         <v>5</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="9">
         <v>4</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="12">
         <f t="shared" si="1"/>
         <v>0.0406976744186047</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="9">
         <v>2</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="12">
         <f t="shared" si="2"/>
         <v>0.037037037037037</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="9">
         <v>5</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="12">
         <f t="shared" si="3"/>
         <v>0.072463768115942</v>
       </c>
-      <c r="O19" s="12">
-        <f t="shared" si="4"/>
-        <v>0.555456171735242</v>
+      <c r="O19">
+        <f>J19/(L19*K3)+(N19*M3)</f>
+        <v>1.1350690933603</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:15">
@@ -1944,83 +1944,83 @@
       <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9">
         <v>6</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="9">
         <v>5</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="12">
         <f t="shared" si="1"/>
         <v>0.0494186046511628</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="9">
         <v>3</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="9">
         <v>6</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="12">
         <f t="shared" si="3"/>
         <v>0.0869565217391304</v>
       </c>
-      <c r="O20" s="12">
-        <f t="shared" si="4"/>
-        <v>0.499007373794668</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:15">
+      <c r="O20">
+        <f>J20/(L20*K3)+(N20*M3)</f>
+        <v>0.933013144590495</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:15">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9">
         <v>6</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="9">
         <v>3</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="12">
         <f t="shared" si="1"/>
         <v>0.0436046511627907</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="9">
         <v>4</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="12">
         <f t="shared" si="2"/>
         <v>0.0740740740740741</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="9">
         <v>2</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="12">
         <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O21" s="12">
-        <f t="shared" si="4"/>
-        <v>0.492336152219873</v>
+      <c r="O21">
+        <f>J21/(L21*K3)+(N21*M3)</f>
+        <v>0.603155544320863</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:15">
@@ -2030,83 +2030,83 @@
       <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9">
         <v>4</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="9">
         <v>4</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="12">
         <f t="shared" si="1"/>
         <v>0.0348837209302326</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="9">
         <v>3</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="9">
         <v>3</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="12">
         <f t="shared" si="3"/>
         <v>0.0434782608695652</v>
       </c>
-      <c r="O22" s="12">
-        <f t="shared" si="4"/>
-        <v>0.451308139534884</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:15">
+      <c r="O22">
+        <f>J22/(L22*K3)+(N22*M3)</f>
+        <v>0.649646107178969</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:15">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9">
         <v>4</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="9">
         <v>6</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="12">
         <f t="shared" si="1"/>
         <v>0.0406976744186047</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="9">
         <v>3</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="12">
         <f t="shared" si="2"/>
         <v>0.0555555555555556</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="9">
         <v>5</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="12">
         <f t="shared" si="3"/>
         <v>0.072463768115942</v>
       </c>
-      <c r="O23" s="12">
-        <f t="shared" si="4"/>
-        <v>0.443390452876377</v>
+      <c r="O23">
+        <f>J23/(L23*K3)+(N23*M3)</f>
+        <v>0.768790023592855</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:15">
@@ -2116,84 +2116,81 @@
       <c r="B24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9">
         <v>4</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="9">
         <v>5</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="12">
         <f t="shared" si="1"/>
         <v>0.0377906976744186</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="9">
         <v>4</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="12">
         <f t="shared" si="2"/>
         <v>0.0740740740740741</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="9">
         <v>2</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="12">
         <f t="shared" si="3"/>
         <v>0.0289855072463768</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24">
+        <f>J24/(L24*K3)+(N24*M3)</f>
+        <v>0.524667172227839</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:14">
+      <c r="A25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="G25" s="9">
+        <f t="shared" ref="G25:K25" si="4">SUM(G5:G24)</f>
+        <v>114</v>
+      </c>
+      <c r="H25" s="9">
         <f t="shared" si="4"/>
-        <v>0.42669133192389</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:14">
-      <c r="A25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="G25" s="8">
-        <f t="shared" ref="G25:K25" si="5">SUM(G5:G24)</f>
-        <v>114</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="9">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K25" s="8">
-        <f t="shared" si="5"/>
+      <c r="K25" s="9">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="9">
         <f>SUM(M5:M24)</f>
         <v>69</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:O24">
-    <sortCondition ref="O5:O24" descending="1"/>
-  </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
